--- a/data/trans_camb/POLIPATOLOGIA_2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_2-Provincia-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>15.75435037507455</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>7.036861927336535</v>
+        <v>7.036861927336541</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>9.999748512856184</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.883973006388908</v>
+        <v>-2.030517887552787</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5762351746554102</v>
+        <v>-0.158338002406907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.894338197319081</v>
+        <v>2.703147605098277</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.679385987838559</v>
+        <v>6.128775398305216</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.615969550435773</v>
+        <v>8.088984747172994</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4654484087480519</v>
+        <v>-0.1529509098921221</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.406686394142976</v>
+        <v>4.626487809546111</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.629010122277799</v>
+        <v>5.414514170653807</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.656702763299968</v>
+        <v>3.066311804546602</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.0310221600543</v>
+        <v>11.04945422296254</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.81197328593507</v>
+        <v>13.28736587500986</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.08615292359851</v>
+        <v>15.458823810385</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23.45943694090026</v>
+        <v>23.02869460800903</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>23.51914101507058</v>
+        <v>24.13103588054202</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.56005120463449</v>
+        <v>13.21164504273105</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15.37895925472269</v>
+        <v>15.47032034119542</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>16.65517867514591</v>
+        <v>16.42531300423556</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>13.18692457440127</v>
+        <v>12.56627060261601</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.6096452386198731</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2723050628360728</v>
+        <v>0.272305062836073</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.4543401240472596</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.08936792700214431</v>
+        <v>-0.1007370828449172</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.0372559853809018</v>
+        <v>-0.008739301717180948</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0978002661166522</v>
+        <v>0.118373175934288</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2183834967513111</v>
+        <v>0.2060950868027736</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2461141273966496</v>
+        <v>0.245069457971234</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01284828125342937</v>
+        <v>-0.002206188285740174</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1769304462855397</v>
+        <v>0.1874328506390066</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2093857632053182</v>
+        <v>0.220036150857726</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1359372313989141</v>
+        <v>0.1251986684892638</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7311580665655185</v>
+        <v>0.7414521548473056</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.8322243094293243</v>
+        <v>0.8839247822276836</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.004040835102569</v>
+        <v>0.9969496646829581</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.063119510202508</v>
+        <v>1.082061852108371</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.084914264841048</v>
+        <v>1.112490115936856</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6289361581859323</v>
+        <v>0.6100088125152497</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7741946530137084</v>
+        <v>0.801989372594084</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8326500497187327</v>
+        <v>0.8447278364144711</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6735138741374852</v>
+        <v>0.6413548248225303</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>3.694009667332396</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.94243632304859</v>
+        <v>7.942436323048597</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-5.696475095703363</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.365892700290126</v>
+        <v>-2.445641169860226</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.209009391626366</v>
+        <v>-1.131458652370423</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.42245912225333</v>
+        <v>2.748517639354108</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-12.05829693221707</v>
+        <v>-11.80517391514126</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-11.30023606353024</v>
+        <v>-11.57549879502737</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.62898010255677</v>
+        <v>-6.144595665045809</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.990521704371295</v>
+        <v>-5.951955447106857</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.081561260820313</v>
+        <v>-4.636217594312308</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.7135352479153266</v>
+        <v>-0.5370273451213371</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.373234495835071</v>
+        <v>8.175184114288479</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.117783164830261</v>
+        <v>9.014027939104373</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.62019967046629</v>
+        <v>14.42338318766982</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4234321387442093</v>
+        <v>1.317319140849329</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.047701724524733</v>
+        <v>0.6689790110628184</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.558250431503289</v>
+        <v>5.358956506324065</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.191321348625511</v>
+        <v>2.58072601138336</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.91853996370396</v>
+        <v>3.695798136142866</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.769105334728191</v>
+        <v>7.494374748237738</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2041690821193579</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.4389809664573255</v>
+        <v>0.4389809664573258</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1408857021851313</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1181886728142622</v>
+        <v>-0.1193108582163287</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05755999511094237</v>
+        <v>-0.05951097380149945</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1185522449427376</v>
+        <v>0.1255866517097398</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.275156981241942</v>
+        <v>-0.2657840766648726</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2627137975412048</v>
+        <v>-0.2642770066328516</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1549627285581238</v>
+        <v>-0.1428070340113002</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1914967028879392</v>
+        <v>-0.1888327647131353</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.160391234167841</v>
+        <v>-0.146965031398031</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.02254244875860045</v>
+        <v>-0.01689029096558928</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.515289251976919</v>
+        <v>0.534430887625739</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5938813838995299</v>
+        <v>0.5993191378834088</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8709160207136267</v>
+        <v>0.9330265544761107</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.0127016651881109</v>
+        <v>0.03708231752840033</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.02471161514351411</v>
+        <v>0.01805130588529235</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1509601210296538</v>
+        <v>0.1448024073805931</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07925812102404654</v>
+        <v>0.09586470089743336</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1053491953301987</v>
+        <v>0.1370127741817987</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2863474120143105</v>
+        <v>0.2752722319303236</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.588963538641412</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19.38372299015888</v>
+        <v>19.38372299015887</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>5.676060824273266</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.52827066072785</v>
+        <v>4.860235223935773</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.36301637897732</v>
+        <v>-3.113856180950055</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13.01494570503472</v>
+        <v>13.10472311678834</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.283444091802153</v>
+        <v>-1.927383933324447</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.62013076604617</v>
+        <v>-6.568391972857682</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>9.419346368505256</v>
+        <v>9.612998610175968</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.183044368623059</v>
+        <v>3.873397200508652</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.981290961392796</v>
+        <v>-2.815242374433688</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>13.33497627255276</v>
+        <v>13.36873702305669</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.17342825105221</v>
+        <v>17.7510493135698</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.766358227808805</v>
+        <v>8.262738127896538</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25.60463500550007</v>
+        <v>26.12005678570598</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.60933565048546</v>
+        <v>12.5684474283123</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.405934561460217</v>
+        <v>8.358848031748293</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>23.01327267096945</v>
+        <v>23.00073610723845</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.22458397959558</v>
+        <v>13.23021502792174</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.827726855399295</v>
+        <v>6.619982240178731</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>22.56568586987056</v>
+        <v>22.61289479722403</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.08077202971455522</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7626770058996578</v>
+        <v>0.7626770058996576</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2726169924039217</v>
+        <v>0.2461774901681345</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1773212958419408</v>
+        <v>-0.1633327634433288</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6229492499034115</v>
+        <v>0.6511451400238309</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.03799439550603215</v>
+        <v>-0.05692694839162879</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1629992096219385</v>
+        <v>-0.193073873193804</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2631669407599224</v>
+        <v>0.2809629528078711</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1220326916655642</v>
+        <v>0.1504689297226885</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1108616477778392</v>
+        <v>-0.1099783465256678</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4995339091728179</v>
+        <v>0.5140404396636754</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.306051083177267</v>
+        <v>1.306099551978733</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6751559266950871</v>
+        <v>0.6482918559129592</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.879111270235969</v>
+        <v>1.962837979987402</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4561691807571559</v>
+        <v>0.4563816026340615</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3133267783937946</v>
+        <v>0.307120853362068</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8569268240041645</v>
+        <v>0.8736778258911413</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6200295666297109</v>
+        <v>0.6096458677608411</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3212210567208343</v>
+        <v>0.3091941825465461</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.070061853249992</v>
+        <v>1.070995050756065</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>12.31607810723903</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.57345262055651</v>
+        <v>16.57345262055652</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>8.343034468263378</v>
@@ -1306,7 +1306,7 @@
         <v>10.23992178818306</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>14.80571947719069</v>
+        <v>14.80571947719068</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.326159398775999</v>
+        <v>-2.782734123254587</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.028132490297164</v>
+        <v>1.668736136617897</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.503112833524604</v>
+        <v>4.827543634668864</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.321630091629647</v>
+        <v>6.279419801489246</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.588321347471074</v>
+        <v>5.659368500820896</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.16423438574582</v>
+        <v>9.484365833784487</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.92678319147036</v>
+        <v>3.826060465606924</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>5.342764764501294</v>
+        <v>5.659906764749223</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>9.695903839136536</v>
+        <v>9.972106607420811</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.044661105072189</v>
+        <v>9.459716207798573</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.54516103726902</v>
+        <v>14.26022627040165</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19.98950928999973</v>
+        <v>19.45934205307475</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20.26204317298182</v>
+        <v>20.40707710987688</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>18.52034563818203</v>
+        <v>19.34543071091795</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>22.70528819365953</v>
+        <v>22.95223553172054</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.62893314870144</v>
+        <v>12.96496465083085</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>14.83723955265534</v>
+        <v>14.90927401660793</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>19.2356888111817</v>
+        <v>19.9720967842002</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.4016334428921847</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5404685467764404</v>
+        <v>0.5404685467764405</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3231518527999866</v>
@@ -1411,7 +1411,7 @@
         <v>0.3966242391741067</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5734718823578017</v>
+        <v>0.5734718823578012</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.150420667609509</v>
+        <v>-0.1188664481338238</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.07105345503342438</v>
+        <v>0.07407684542170745</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2429745317144377</v>
+        <v>0.2015372797466797</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1785307863607568</v>
+        <v>0.1849069737382019</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1408183265961422</v>
+        <v>0.160152186959986</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3013670034336894</v>
+        <v>0.2756121001031344</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1015301683960771</v>
+        <v>0.1366005198323148</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1922357466835653</v>
+        <v>0.1991833459195298</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3472107899668918</v>
+        <v>0.3483106685391515</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5116930708234625</v>
+        <v>0.5286710206725592</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7962131577010397</v>
+        <v>0.8064510443979424</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.179927198456723</v>
+        <v>1.097875117199863</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7371369650851352</v>
+        <v>0.7472416370037824</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6745476976939481</v>
+        <v>0.6948753727660273</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8235283224875938</v>
+        <v>0.8519196483812758</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5397153010572068</v>
+        <v>0.5513188598885934</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6278596084439653</v>
+        <v>0.6300554156580697</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.822329283010968</v>
+        <v>0.8369200612361909</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>10.22201905820213</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18.42525471596344</v>
+        <v>18.42525471596343</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>28.69962488697625</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>7.37281110196408</v>
+        <v>7.777519111947151</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.42107460725392</v>
+        <v>2.739767521862442</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11.07930971037369</v>
+        <v>11.43291594968268</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>19.30240146620076</v>
+        <v>18.68266366667953</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.1201186133727147</v>
+        <v>0.2097761350601072</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>13.26155492725194</v>
+        <v>13.22488803277759</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>15.07702850416862</v>
+        <v>15.87032541843457</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>4.499694208395638</v>
+        <v>3.904969530026472</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>14.64065216029164</v>
+        <v>15.20199797339124</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.31726462947245</v>
+        <v>23.21547551567017</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>17.50634238497811</v>
+        <v>17.93690624371409</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>25.24696411370522</v>
+        <v>25.93918197904048</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>37.63854973912989</v>
+        <v>37.71951439358531</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>19.20627805984751</v>
+        <v>18.20214834179039</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>29.38848998941099</v>
+        <v>29.67295554800347</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>28.12346562321092</v>
+        <v>28.62676987773439</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>15.28948864977864</v>
+        <v>16.30508114835024</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>25.33893875326553</v>
+        <v>25.74848572483797</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.378009779605312</v>
+        <v>0.4583913950452443</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1262231621022709</v>
+        <v>0.1452625814358653</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.6767122189674606</v>
+        <v>0.7118967131398738</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.5412150510119896</v>
+        <v>0.5169672243400297</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.007079577089362915</v>
+        <v>-0.0065677985916717</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3556617835341487</v>
+        <v>0.3575981823769646</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6012603638886719</v>
+        <v>0.6267168061438833</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1728353032028472</v>
+        <v>0.1499017497206663</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5756956485823148</v>
+        <v>0.6140726245538458</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.204340841346379</v>
+        <v>2.418339311900531</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.834777913211961</v>
+        <v>1.920416470702661</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.829752154405528</v>
+        <v>2.851710956751686</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.501886374049326</v>
+        <v>1.511813758236982</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7625427994662045</v>
+        <v>0.7226010113985774</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.134720299255465</v>
+        <v>1.21647639193573</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.493507814840484</v>
+        <v>1.531516012817466</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.794980695520162</v>
+        <v>0.8738617501766054</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.398568132506082</v>
+        <v>1.403863101172362</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-1.022369229790748</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>13.61225028095032</v>
+        <v>13.6122502809503</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>12.31902146161944</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>7.305246090682097</v>
+        <v>7.362906047742309</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.516865170968215</v>
+        <v>-0.859202404639803</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>16.97481144621761</v>
+        <v>16.93387696536981</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.572395127839138</v>
+        <v>1.793498990711075</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-8.936748914497466</v>
+        <v>-8.852780789250863</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>5.856339796905705</v>
+        <v>5.999497305008974</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>6.534895957331043</v>
+        <v>6.950919980856263</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.259813951025742</v>
+        <v>-3.248307162684789</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>13.23614919629119</v>
+        <v>13.53657822071037</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>21.78351994542255</v>
+        <v>22.80874009001293</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>12.19345683925535</v>
+        <v>13.15683818208628</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>30.80842804488536</v>
+        <v>30.92565802273687</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18.2041874527218</v>
+        <v>17.90166072146215</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.069771582272488</v>
+        <v>7.083538017538049</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>21.10158230570065</v>
+        <v>20.36266906342939</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>17.75707402556064</v>
+        <v>17.48153909614897</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.798998450473217</v>
+        <v>7.90283286736994</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>24.48139480999861</v>
+        <v>23.75257767101609</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.02868383444509653</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3819085337338574</v>
+        <v>0.3819085337338568</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4541982721021476</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.3278551883631643</v>
+        <v>0.3299252836319242</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.07266523327525784</v>
+        <v>-0.05718322170983407</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.7328795971175706</v>
+        <v>0.7785182039647586</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.05167255064576681</v>
+        <v>0.04438397513988269</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2234760359710301</v>
+        <v>-0.2219594069915108</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1476884703635468</v>
+        <v>0.1440972321195101</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2130722564061262</v>
+        <v>0.2286207609484869</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1085405973758682</v>
+        <v>-0.1124641835799377</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.441369614000792</v>
+        <v>0.4565242457517938</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.423234918189439</v>
+        <v>1.513724976044208</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.8232241745469875</v>
+        <v>0.862569404167826</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.035737982617125</v>
+        <v>2.170079320758487</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5770375187121028</v>
+        <v>0.5652682204674799</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2291536337417146</v>
+        <v>0.2342657467237782</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6806233135553941</v>
+        <v>0.6645674751443108</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7139277447632956</v>
+        <v>0.7101590679413621</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3096239503293964</v>
+        <v>0.324264084595624</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.018691218952437</v>
+        <v>0.990783825210546</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>2.757429711885023</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>32.25089440150262</v>
+        <v>32.25089440150263</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>8.682377693082492</v>
@@ -1948,7 +1948,7 @@
         <v>2.564279968048708</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>26.85909691684741</v>
+        <v>26.85909691684742</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.977096970280632</v>
+        <v>2.944284181903034</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.168762522905947</v>
+        <v>-2.19287790954514</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>15.91188195149308</v>
+        <v>15.875002466596</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4.552219456571026</v>
+        <v>4.000271140537967</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.803280927041807</v>
+        <v>-2.584727958408871</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>27.80917879296253</v>
+        <v>27.06060053858343</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>4.895022111053922</v>
+        <v>4.896417312406656</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.15657233231815</v>
+        <v>-0.8541252703547556</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>22.96807818141167</v>
+        <v>23.24955812043963</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>12.93862162212334</v>
+        <v>12.42361175335753</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.70548552424205</v>
+        <v>6.966840327855674</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>25.98710283088922</v>
+        <v>26.24702152228672</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>14.78700808369355</v>
+        <v>15.04649211808061</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.878301591766652</v>
+        <v>8.08159331603308</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>37.36305967158688</v>
+        <v>37.55826497634425</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>11.97986860361166</v>
+        <v>12.38000349592023</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.948898378662257</v>
+        <v>6.212924647994652</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>30.31680621257141</v>
+        <v>30.38306753688921</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1245215400517478</v>
+        <v>0.1277702209973855</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.09787102674272177</v>
+        <v>-0.09971422582815617</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.7375429644151174</v>
+        <v>0.7267796082419837</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1415404437166313</v>
+        <v>0.1221321711524793</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.05565803278451617</v>
+        <v>-0.07612342059850372</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8572911141311059</v>
+        <v>0.8269831075653769</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1848222349740103</v>
+        <v>0.1891234564903475</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.04297119725089193</v>
+        <v>-0.0324860240683</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.8656534970557166</v>
+        <v>0.8792298715302724</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7409570052100172</v>
+        <v>0.7438819423174561</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4017965283927934</v>
+        <v>0.4215056464324426</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.57478241398213</v>
+        <v>1.5421860900596</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5382337074248525</v>
+        <v>0.5664928522411061</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2882160545688878</v>
+        <v>0.3075844811884785</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.407643858099534</v>
+        <v>1.438544706942621</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.522285080766889</v>
+        <v>0.5388688621603241</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2591881735495871</v>
+        <v>0.267947874974082</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.335067190160407</v>
+        <v>1.331618213744661</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>1.431154405497159</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1.117391588765837</v>
+        <v>1.117391588765843</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-7.319098086369308</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-10.16400605757909</v>
+        <v>-9.939298914784702</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.989083048491447</v>
+        <v>-3.333717791680878</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.988686088993846</v>
+        <v>-3.146038924454844</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-12.35933377583708</v>
+        <v>-12.10305069588316</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-6.792128017424045</v>
+        <v>-6.494654303547444</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-5.015692278341262</v>
+        <v>-4.63232664028467</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-10.08483957328663</v>
+        <v>-9.427717250187367</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-3.234201282355397</v>
+        <v>-3.342670781653446</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.871685342274009</v>
+        <v>-3.024250355878966</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-1.151627552683311</v>
+        <v>-1.045624589499083</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>6.338068871988821</v>
+        <v>5.514468121067081</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>5.457837776967904</v>
+        <v>5.858819698804621</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-3.378448533547052</v>
+        <v>-2.187789253428823</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.951084747850909</v>
+        <v>3.406796563405492</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>4.19659137127729</v>
+        <v>4.91286705661706</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-2.981412742995158</v>
+        <v>-3.042903182867671</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.397794822443326</v>
+        <v>3.22457461494917</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.472487739376001</v>
+        <v>3.547257058061792</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.05696700326681164</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.04447769579790295</v>
+        <v>0.04447769579790316</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.1966436551705739</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3687590926039021</v>
+        <v>-0.3621807317550642</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1114340370137778</v>
+        <v>-0.1227583001063366</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1093080035303918</v>
+        <v>-0.1152219601460699</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3106223117060598</v>
+        <v>-0.3005168253622881</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1695602638615323</v>
+        <v>-0.1654347132778468</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1253157687726125</v>
+        <v>-0.1159759135696194</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3032438706452789</v>
+        <v>-0.2885736693724571</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.09743997452059237</v>
+        <v>-0.1014803466701316</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.08840154005315078</v>
+        <v>-0.09290290555097243</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.04992268783831106</v>
+        <v>-0.04466563332390064</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2847036710636932</v>
+        <v>0.237486464270272</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2460594484026898</v>
+        <v>0.2575275836707908</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.09243364884313424</v>
+        <v>-0.06551871518200066</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.08343940847415306</v>
+        <v>0.0996390606078629</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1227227192751537</v>
+        <v>0.1405108752749937</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.09774954649947941</v>
+        <v>-0.09965672567998883</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1135970107326424</v>
+        <v>0.1110280427747003</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1175821048076684</v>
+        <v>0.1166377085889097</v>
       </c>
     </row>
     <row r="52">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>2.538143455205788</v>
+        <v>2.466680077505687</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>2.132923669624459</v>
+        <v>1.917317879910314</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>10.29658863359305</v>
+        <v>10.3912292302399</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>2.85583014441494</v>
+        <v>2.753135772909265</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>0.2229182655611469</v>
+        <v>0.5085712778463253</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>10.54325423904723</v>
+        <v>10.37881724786164</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>3.308957919499468</v>
+        <v>3.368000704398285</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>1.577715959717741</v>
+        <v>1.778391531164891</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>11.00798545112286</v>
+        <v>11.04986232517131</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>6.546152690139205</v>
+        <v>6.640526496895998</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>6.044825144563394</v>
+        <v>5.985836724571659</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>14.52338713094144</v>
+        <v>14.70630910703348</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>7.584785379292586</v>
+        <v>7.431919372617936</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>4.859399779585329</v>
+        <v>5.1361925052186</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>14.7965263785499</v>
+        <v>14.83009951906795</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>6.427614373315962</v>
+        <v>6.555343924487632</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>4.89457759220364</v>
+        <v>4.970366236587018</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>14.09070815635819</v>
+        <v>14.12356340842136</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>0.07746783008724742</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.3768416022289268</v>
+        <v>0.3768416022289267</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.1824995874025954</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1203917674225191</v>
+        <v>0.1162254681675586</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.1010518028162075</v>
+        <v>0.09322545923812156</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.4941089373104396</v>
+        <v>0.4966844501181629</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.08264721948084124</v>
+        <v>0.07906748363655282</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.008143530398260962</v>
+        <v>0.01447649722833916</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3051334482757365</v>
+        <v>0.2955902176934184</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1201983915327851</v>
+        <v>0.1223777169711442</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.05730745734313816</v>
+        <v>0.06493103542298324</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.3958979742801711</v>
+        <v>0.3992849554432429</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.3449316805304665</v>
+        <v>0.3566126860555618</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.3249158983782847</v>
+        <v>0.3191162116855832</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.7744543505151372</v>
+        <v>0.7875617219686932</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.2343668648272905</v>
+        <v>0.2295322978872502</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1516794966754929</v>
+        <v>0.1593911957119557</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.4594345136469144</v>
+        <v>0.4596790204347987</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.2453007642277735</v>
+        <v>0.2537896746340492</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.1872618102693984</v>
+        <v>0.1898127761425289</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.5440345005171866</v>
+        <v>0.5442402823602546</v>
       </c>
     </row>
     <row r="58">
